--- a/data/pca/factorExposure/factorExposure_2018-02-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.006848659220475981</v>
+        <v>0.01314742304842273</v>
       </c>
       <c r="C2">
-        <v>-0.02183407111728092</v>
+        <v>-0.02920740745924844</v>
       </c>
       <c r="D2">
-        <v>0.01951197766082883</v>
+        <v>-0.02266042399255302</v>
       </c>
       <c r="E2">
-        <v>-0.01271261263845322</v>
+        <v>-0.01503493248171148</v>
       </c>
       <c r="F2">
-        <v>-0.07867666233999027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01282294882728617</v>
+      </c>
+      <c r="G2">
+        <v>-0.0109084484303855</v>
+      </c>
+      <c r="H2">
+        <v>0.04315354829236679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08973092497853649</v>
+        <v>0.05567568548795088</v>
       </c>
       <c r="C3">
-        <v>-0.03524505554076417</v>
+        <v>-0.07993619357652393</v>
       </c>
       <c r="D3">
-        <v>-0.004818591837365361</v>
+        <v>-0.002430445489159758</v>
       </c>
       <c r="E3">
-        <v>-0.06746848556764447</v>
+        <v>-0.05663231897779918</v>
       </c>
       <c r="F3">
-        <v>-0.297978129328753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.04430343630908407</v>
+      </c>
+      <c r="G3">
+        <v>-0.0196156034517588</v>
+      </c>
+      <c r="H3">
+        <v>0.1242074415017682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04257482768048008</v>
+        <v>0.03195598571132045</v>
       </c>
       <c r="C4">
-        <v>-0.00306662544336071</v>
+        <v>-0.06655176571795378</v>
       </c>
       <c r="D4">
-        <v>0.02960927809860446</v>
+        <v>-0.01523705508548263</v>
       </c>
       <c r="E4">
-        <v>0.03463688175798267</v>
+        <v>0.009783387214251581</v>
       </c>
       <c r="F4">
-        <v>-0.06451095939592313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.02397898369483336</v>
+      </c>
+      <c r="G4">
+        <v>-0.04721150323440397</v>
+      </c>
+      <c r="H4">
+        <v>0.05241218231291282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03583779506351943</v>
+        <v>0.01681880365802148</v>
       </c>
       <c r="C6">
-        <v>-0.01087999155034148</v>
+        <v>-0.06436246567817491</v>
       </c>
       <c r="D6">
-        <v>0.04034259094758928</v>
+        <v>-0.01006403732093234</v>
       </c>
       <c r="E6">
-        <v>0.02858697828731372</v>
+        <v>0.01725901266430261</v>
       </c>
       <c r="F6">
-        <v>-0.02456531398819585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.000816286639015507</v>
+      </c>
+      <c r="G6">
+        <v>-0.03077702443230434</v>
+      </c>
+      <c r="H6">
+        <v>0.0471770937079506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03964594733720467</v>
+        <v>0.0055159367053052</v>
       </c>
       <c r="C7">
-        <v>0.03461222550080079</v>
+        <v>-0.03595954602693106</v>
       </c>
       <c r="D7">
-        <v>0.01788008371284455</v>
+        <v>-0.009226958182298921</v>
       </c>
       <c r="E7">
-        <v>0.01146806837892755</v>
+        <v>0.02270312097033142</v>
       </c>
       <c r="F7">
-        <v>-0.03035181330300686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04390672441133305</v>
+      </c>
+      <c r="G7">
+        <v>0.001439374821322954</v>
+      </c>
+      <c r="H7">
+        <v>0.02639418479345571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01107979815871005</v>
+        <v>-0.004583569883453853</v>
       </c>
       <c r="C8">
-        <v>0.007738445695516815</v>
+        <v>-0.007205883468365823</v>
       </c>
       <c r="D8">
-        <v>0.03137427902107015</v>
+        <v>-0.001299942444723442</v>
       </c>
       <c r="E8">
-        <v>0.02708778746443375</v>
+        <v>0.0003915891279535809</v>
       </c>
       <c r="F8">
-        <v>-0.05910794883034293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02102310739293597</v>
+      </c>
+      <c r="G8">
+        <v>-0.01758190359485023</v>
+      </c>
+      <c r="H8">
+        <v>0.02347047706748443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03322596109186296</v>
+        <v>0.01794561484277812</v>
       </c>
       <c r="C9">
-        <v>-0.0007192646169068306</v>
+        <v>-0.04907409599494934</v>
       </c>
       <c r="D9">
-        <v>0.02650076862173769</v>
+        <v>-0.01027560940012863</v>
       </c>
       <c r="E9">
-        <v>0.005440758930587001</v>
+        <v>0.007345288023550189</v>
       </c>
       <c r="F9">
-        <v>-0.07325849190833467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01626721132619433</v>
+      </c>
+      <c r="G9">
+        <v>-0.01821140154893959</v>
+      </c>
+      <c r="H9">
+        <v>0.05041198381840828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04759835031840887</v>
+        <v>0.1427008488583265</v>
       </c>
       <c r="C10">
-        <v>-0.01250738387276791</v>
+        <v>0.1367488899634454</v>
       </c>
       <c r="D10">
-        <v>-0.141033831669767</v>
+        <v>0.01878526007589063</v>
       </c>
       <c r="E10">
-        <v>-0.07081631857832753</v>
+        <v>-0.03222541276324262</v>
       </c>
       <c r="F10">
-        <v>-0.04065143201288082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.02245241454050318</v>
+      </c>
+      <c r="G10">
+        <v>0.02656731485214906</v>
+      </c>
+      <c r="H10">
+        <v>-0.006097151405731869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02735427868476514</v>
+        <v>0.01237826975956823</v>
       </c>
       <c r="C11">
-        <v>-0.01588717334821637</v>
+        <v>-0.05010871499777192</v>
       </c>
       <c r="D11">
-        <v>0.03782081295820087</v>
+        <v>0.002996109905102672</v>
       </c>
       <c r="E11">
-        <v>0.02512674193992175</v>
+        <v>0.01118455937209662</v>
       </c>
       <c r="F11">
-        <v>-0.02461187153235312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.003383660138722685</v>
+      </c>
+      <c r="G11">
+        <v>-0.01553042736131728</v>
+      </c>
+      <c r="H11">
+        <v>0.04518937167172613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03986763184215085</v>
+        <v>0.01757540879567715</v>
       </c>
       <c r="C12">
-        <v>-0.01486549238750001</v>
+        <v>-0.04842809031458532</v>
       </c>
       <c r="D12">
-        <v>0.033269629961758</v>
+        <v>-0.0006971444201117862</v>
       </c>
       <c r="E12">
-        <v>0.03529059297230645</v>
+        <v>0.02063911671346022</v>
       </c>
       <c r="F12">
-        <v>0.001288709500617241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.004512575584643365</v>
+      </c>
+      <c r="G12">
+        <v>-0.01059319078550166</v>
+      </c>
+      <c r="H12">
+        <v>0.01782860262210409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.007075158869632182</v>
+        <v>0.0136230608535917</v>
       </c>
       <c r="C13">
-        <v>-0.01595260975873324</v>
+        <v>-0.02565205574960072</v>
       </c>
       <c r="D13">
-        <v>0.005107938062746026</v>
+        <v>-0.01947976685561801</v>
       </c>
       <c r="E13">
-        <v>-4.77774961232808e-05</v>
+        <v>-0.01333497884334335</v>
       </c>
       <c r="F13">
-        <v>-0.06512260506842787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0003952169468623244</v>
+      </c>
+      <c r="G13">
+        <v>-0.02947477815781023</v>
+      </c>
+      <c r="H13">
+        <v>0.06332907442815874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02393285982340408</v>
+        <v>0.006771859658010605</v>
       </c>
       <c r="C14">
-        <v>0.007643447388086878</v>
+        <v>-0.0211013968816177</v>
       </c>
       <c r="D14">
-        <v>0.009826687398237513</v>
+        <v>-0.00518969760646582</v>
       </c>
       <c r="E14">
-        <v>0.01311240568740185</v>
+        <v>0.009964698112535081</v>
       </c>
       <c r="F14">
-        <v>-0.04493266799166359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02223831669607263</v>
+      </c>
+      <c r="G14">
+        <v>-0.01271403257772835</v>
+      </c>
+      <c r="H14">
+        <v>0.01909728704046796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02963315132748637</v>
+        <v>0.01476158633394393</v>
       </c>
       <c r="C16">
-        <v>-0.01452187997667253</v>
+        <v>-0.04374220603899662</v>
       </c>
       <c r="D16">
-        <v>0.04112031651452592</v>
+        <v>0.00322095265029105</v>
       </c>
       <c r="E16">
-        <v>0.02385275298822763</v>
+        <v>0.01063535109332193</v>
       </c>
       <c r="F16">
-        <v>-0.0307515587473356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.002254912105417433</v>
+      </c>
+      <c r="G16">
+        <v>-0.0142981763616015</v>
+      </c>
+      <c r="H16">
+        <v>0.0337729939034551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03391506356074703</v>
+        <v>0.01487905607746867</v>
       </c>
       <c r="C19">
-        <v>-0.008958105310779172</v>
+        <v>-0.04612832641462473</v>
       </c>
       <c r="D19">
-        <v>0.02893956301624686</v>
+        <v>-0.00890257917129203</v>
       </c>
       <c r="E19">
-        <v>0.03750004734167707</v>
+        <v>-0.01325471946609431</v>
       </c>
       <c r="F19">
-        <v>-0.07754995448185158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02722172488015711</v>
+      </c>
+      <c r="G19">
+        <v>-0.03632914270023554</v>
+      </c>
+      <c r="H19">
+        <v>0.05652264906502722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0001810916394084139</v>
+        <v>0.001468092812733907</v>
       </c>
       <c r="C20">
-        <v>0.01155802691624221</v>
+        <v>-0.02296627435515227</v>
       </c>
       <c r="D20">
-        <v>-0.002575655266740395</v>
+        <v>-0.009360165363890177</v>
       </c>
       <c r="E20">
-        <v>0.009496284663050985</v>
+        <v>-0.007270946884040676</v>
       </c>
       <c r="F20">
-        <v>-0.04934674230773931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01885108217797949</v>
+      </c>
+      <c r="G20">
+        <v>-0.02219995132374227</v>
+      </c>
+      <c r="H20">
+        <v>0.03017964947463468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02695198432698607</v>
+        <v>0.005657068328994736</v>
       </c>
       <c r="C21">
-        <v>0.008256790710652212</v>
+        <v>-0.02449266234153171</v>
       </c>
       <c r="D21">
-        <v>0.02394646059859151</v>
+        <v>-0.01185455385109743</v>
       </c>
       <c r="E21">
-        <v>0.008955642724442924</v>
+        <v>-0.006812582206838873</v>
       </c>
       <c r="F21">
-        <v>-0.03136545007977229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02719411281180881</v>
+      </c>
+      <c r="G21">
+        <v>-0.007628505347588751</v>
+      </c>
+      <c r="H21">
+        <v>0.03376879258622065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0233306705765176</v>
+        <v>0.008345172279465039</v>
       </c>
       <c r="C24">
-        <v>-0.01351072097574835</v>
+        <v>-0.04200292339359029</v>
       </c>
       <c r="D24">
-        <v>0.02912407385674818</v>
+        <v>-0.002174419981238014</v>
       </c>
       <c r="E24">
-        <v>0.02521025634993872</v>
+        <v>0.0144332027701993</v>
       </c>
       <c r="F24">
-        <v>-0.02239501887577014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.003531337573166421</v>
+      </c>
+      <c r="G24">
+        <v>-0.01275670209091755</v>
+      </c>
+      <c r="H24">
+        <v>0.03762727122410915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03151989664053381</v>
+        <v>0.02287520400314677</v>
       </c>
       <c r="C25">
-        <v>-0.01320374365644607</v>
+        <v>-0.05064370607168994</v>
       </c>
       <c r="D25">
-        <v>0.03280150757871858</v>
+        <v>-0.004885849522905723</v>
       </c>
       <c r="E25">
-        <v>0.01917668959424433</v>
+        <v>0.01954501369506726</v>
       </c>
       <c r="F25">
-        <v>-0.0306463003440821</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.002269174040128154</v>
+      </c>
+      <c r="G25">
+        <v>-0.01917711403777165</v>
+      </c>
+      <c r="H25">
+        <v>0.03617241902198358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01360489709316137</v>
+        <v>0.005624805475951117</v>
       </c>
       <c r="C26">
-        <v>-0.001854567296264796</v>
+        <v>-0.007186212175935995</v>
       </c>
       <c r="D26">
-        <v>0.01381860044932669</v>
+        <v>-0.02201926887113722</v>
       </c>
       <c r="E26">
-        <v>-0.01203740606866563</v>
+        <v>0.001849318558513467</v>
       </c>
       <c r="F26">
-        <v>-0.05211640427846794</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01031480292009423</v>
+      </c>
+      <c r="G26">
+        <v>-0.001549579475561096</v>
+      </c>
+      <c r="H26">
+        <v>0.01773860467571153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02026373979429932</v>
+        <v>0.005913755863587757</v>
       </c>
       <c r="C27">
-        <v>0.000177560301438854</v>
+        <v>-0.00599871417649107</v>
       </c>
       <c r="D27">
-        <v>-0.003618124078775601</v>
+        <v>0.001772427216237645</v>
       </c>
       <c r="E27">
-        <v>0.02896758799989187</v>
+        <v>0.002958310911961771</v>
       </c>
       <c r="F27">
-        <v>-0.01340688536768844</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01154070275320355</v>
+      </c>
+      <c r="G27">
+        <v>-0.0082760993769032</v>
+      </c>
+      <c r="H27">
+        <v>-0.0062887413689704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0894905304247357</v>
+        <v>0.1936329425226454</v>
       </c>
       <c r="C28">
-        <v>-0.02124610488110466</v>
+        <v>0.1739494580152244</v>
       </c>
       <c r="D28">
-        <v>-0.2069583538369008</v>
+        <v>0.01182935211692088</v>
       </c>
       <c r="E28">
-        <v>-0.1063586259417733</v>
+        <v>-0.02461128763984231</v>
       </c>
       <c r="F28">
-        <v>-0.02922623029282952</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03433139716305796</v>
+      </c>
+      <c r="G28">
+        <v>0.02949614025096027</v>
+      </c>
+      <c r="H28">
+        <v>-0.004670245494639305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02601378645382865</v>
+        <v>0.01154758454693921</v>
       </c>
       <c r="C29">
-        <v>0.003509181701444367</v>
+        <v>-0.01947255774236806</v>
       </c>
       <c r="D29">
-        <v>0.009178651109692569</v>
+        <v>-0.004182734403442552</v>
       </c>
       <c r="E29">
-        <v>0.01602521730640032</v>
+        <v>0.007510210811296214</v>
       </c>
       <c r="F29">
-        <v>-0.04221294619374021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02164823293576807</v>
+      </c>
+      <c r="G29">
+        <v>-0.01172643585901608</v>
+      </c>
+      <c r="H29">
+        <v>0.00998475250771942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03402951271151837</v>
+        <v>0.0202655354640142</v>
       </c>
       <c r="C30">
-        <v>-0.05741407379402351</v>
+        <v>-0.08713102487075589</v>
       </c>
       <c r="D30">
-        <v>0.05308268486162367</v>
+        <v>-0.01914816071685451</v>
       </c>
       <c r="E30">
-        <v>0.02089015408964607</v>
+        <v>-0.004737840705022736</v>
       </c>
       <c r="F30">
-        <v>-0.08017173650115048</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02334274309817505</v>
+      </c>
+      <c r="G30">
+        <v>-0.04302414550844474</v>
+      </c>
+      <c r="H30">
+        <v>0.06783113598562396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0477183755268134</v>
+        <v>0.03332164119916549</v>
       </c>
       <c r="C31">
-        <v>-0.01892878823770408</v>
+        <v>-0.03262075265680792</v>
       </c>
       <c r="D31">
-        <v>0.01992070178659408</v>
+        <v>0.00157781051909884</v>
       </c>
       <c r="E31">
-        <v>0.02899027253611634</v>
+        <v>0.01240879190880147</v>
       </c>
       <c r="F31">
-        <v>-0.03990004843003271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01021874604400739</v>
+      </c>
+      <c r="G31">
+        <v>-0.002698486685974534</v>
+      </c>
+      <c r="H31">
+        <v>0.001203106996421107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02218283512717201</v>
+        <v>-0.001677960001401506</v>
       </c>
       <c r="C32">
-        <v>0.02164586986598941</v>
+        <v>-0.0137033789912458</v>
       </c>
       <c r="D32">
-        <v>0.043099255547374</v>
+        <v>0.008428406242649808</v>
       </c>
       <c r="E32">
-        <v>0.04072095536733306</v>
+        <v>-0.0008236401160178692</v>
       </c>
       <c r="F32">
-        <v>-0.04646179386813364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04342207662027993</v>
+      </c>
+      <c r="G32">
+        <v>-0.04125846486324827</v>
+      </c>
+      <c r="H32">
+        <v>0.04035818551682822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02971451379758202</v>
+        <v>0.01584783452509059</v>
       </c>
       <c r="C33">
-        <v>-0.03216320101173817</v>
+        <v>-0.04910229987059251</v>
       </c>
       <c r="D33">
-        <v>0.04449764391362254</v>
+        <v>-0.008550946952823784</v>
       </c>
       <c r="E33">
-        <v>0.006917173338032829</v>
+        <v>-0.008714408748116008</v>
       </c>
       <c r="F33">
-        <v>-0.05824743012374511</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.005436512180511376</v>
+      </c>
+      <c r="G33">
+        <v>-0.002624416438533473</v>
+      </c>
+      <c r="H33">
+        <v>0.04930211473395555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03295043478919814</v>
+        <v>0.0236769507247831</v>
       </c>
       <c r="C34">
-        <v>-0.008077430863929617</v>
+        <v>-0.05232363250830194</v>
       </c>
       <c r="D34">
-        <v>0.04051910821086444</v>
+        <v>0.01165691528166956</v>
       </c>
       <c r="E34">
-        <v>0.03622961344912266</v>
+        <v>0.02619268073681866</v>
       </c>
       <c r="F34">
-        <v>-0.02759550801408932</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.005463194883713419</v>
+      </c>
+      <c r="G34">
+        <v>-0.01793815642341631</v>
+      </c>
+      <c r="H34">
+        <v>0.03682905353601339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01933878729582327</v>
+        <v>0.01209554043450576</v>
       </c>
       <c r="C36">
-        <v>0.003925454708697605</v>
+        <v>-0.00574915882000672</v>
       </c>
       <c r="D36">
-        <v>0.002211893063853058</v>
+        <v>-0.008804127496497165</v>
       </c>
       <c r="E36">
-        <v>0.008579471576021777</v>
+        <v>0.003007391961034653</v>
       </c>
       <c r="F36">
-        <v>-0.0307441055218624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01355378469774219</v>
+      </c>
+      <c r="G36">
+        <v>-0.001617850773286043</v>
+      </c>
+      <c r="H36">
+        <v>0.01171608946593497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01178632369656335</v>
+        <v>0.02498418323555944</v>
       </c>
       <c r="C38">
-        <v>-0.007635429239063971</v>
+        <v>-0.02064627975556259</v>
       </c>
       <c r="D38">
-        <v>0.001299215829250639</v>
+        <v>0.01184983997044205</v>
       </c>
       <c r="E38">
-        <v>-0.0232438812416711</v>
+        <v>0.007913513059093331</v>
       </c>
       <c r="F38">
-        <v>-0.04304375382364341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.0003421414602229662</v>
+      </c>
+      <c r="G38">
+        <v>-0.009640858712133656</v>
+      </c>
+      <c r="H38">
+        <v>0.03124560338698207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02235119971139655</v>
+        <v>-0.0001075007982718468</v>
       </c>
       <c r="C39">
-        <v>-0.01112326433582948</v>
+        <v>-0.0872642206586496</v>
       </c>
       <c r="D39">
-        <v>0.05589470041247328</v>
+        <v>-0.005490017209358941</v>
       </c>
       <c r="E39">
-        <v>0.02459743574448911</v>
+        <v>0.01301002763455956</v>
       </c>
       <c r="F39">
-        <v>-0.05378252957482649</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.00845438167315128</v>
+      </c>
+      <c r="G39">
+        <v>-0.02367968970170734</v>
+      </c>
+      <c r="H39">
+        <v>0.07366851502615918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01513582833805107</v>
+        <v>0.01990385310512413</v>
       </c>
       <c r="C40">
-        <v>-0.0386766580999522</v>
+        <v>-0.02998971247817654</v>
       </c>
       <c r="D40">
-        <v>0.01746479529428569</v>
+        <v>-0.006561290220705326</v>
       </c>
       <c r="E40">
-        <v>0.02706256931804441</v>
+        <v>0.0002728118923151322</v>
       </c>
       <c r="F40">
-        <v>-0.02858350799891476</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02126731762307478</v>
+      </c>
+      <c r="G40">
+        <v>-0.02906885639100656</v>
+      </c>
+      <c r="H40">
+        <v>0.04120320250348554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009701283777157035</v>
+        <v>0.0118058085674601</v>
       </c>
       <c r="C41">
-        <v>-0.0007308387890070682</v>
+        <v>0.007449618595505429</v>
       </c>
       <c r="D41">
-        <v>0.001995108520493494</v>
+        <v>-0.00248574043573734</v>
       </c>
       <c r="E41">
-        <v>-0.0125494538555029</v>
+        <v>0.003477713102728283</v>
       </c>
       <c r="F41">
-        <v>-0.002852766398842466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003925906034688233</v>
+      </c>
+      <c r="G41">
+        <v>0.01148699813670154</v>
+      </c>
+      <c r="H41">
+        <v>-0.004086791877263544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2203908903772522</v>
+        <v>0.06873697956009397</v>
       </c>
       <c r="C42">
-        <v>-0.2235184758288086</v>
+        <v>-0.2078612460008987</v>
       </c>
       <c r="D42">
-        <v>0.4018986831956581</v>
+        <v>-0.1122505065801975</v>
       </c>
       <c r="E42">
-        <v>-0.7642479884249701</v>
+        <v>-0.1185085143398668</v>
       </c>
       <c r="F42">
-        <v>0.3229815616528587</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.2337797476471444</v>
+      </c>
+      <c r="G42">
+        <v>0.9198628166778251</v>
+      </c>
+      <c r="H42">
+        <v>0.0756807708555625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01054944565241867</v>
+        <v>0.01285779129137152</v>
       </c>
       <c r="C43">
-        <v>-0.003205603265869229</v>
+        <v>0.003819077187034101</v>
       </c>
       <c r="D43">
-        <v>0.004936194362150891</v>
+        <v>-0.002898197235116188</v>
       </c>
       <c r="E43">
-        <v>-0.0008941850948799197</v>
+        <v>-0.001610848653186254</v>
       </c>
       <c r="F43">
-        <v>-0.02614971475599508</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004187561684167907</v>
+      </c>
+      <c r="G43">
+        <v>0.006003667063216518</v>
+      </c>
+      <c r="H43">
+        <v>0.005174875274356027</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02292960489000076</v>
+        <v>0.004549804792650471</v>
       </c>
       <c r="C44">
-        <v>0.01203283909916478</v>
+        <v>-0.04175952859484214</v>
       </c>
       <c r="D44">
-        <v>0.02507333571821544</v>
+        <v>-0.002462734562551813</v>
       </c>
       <c r="E44">
-        <v>-0.01531891093477296</v>
+        <v>-0.003541287037332264</v>
       </c>
       <c r="F44">
-        <v>-0.08477564860099807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02661034594603647</v>
+      </c>
+      <c r="G44">
+        <v>0.0003064966139626911</v>
+      </c>
+      <c r="H44">
+        <v>0.06035042077675196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01813119090409462</v>
+        <v>0.004005739168531611</v>
       </c>
       <c r="C46">
-        <v>-0.004247452554197696</v>
+        <v>-0.01393655017694293</v>
       </c>
       <c r="D46">
-        <v>0.03726096431876223</v>
+        <v>-0.009343633204582457</v>
       </c>
       <c r="E46">
-        <v>0.02752218847508787</v>
+        <v>0.000875715392554254</v>
       </c>
       <c r="F46">
-        <v>-0.06675035676132854</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01142260690212748</v>
+      </c>
+      <c r="G46">
+        <v>-0.009228173857247156</v>
+      </c>
+      <c r="H46">
+        <v>0.0125340821513133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0777126929716514</v>
+        <v>0.05296876764729593</v>
       </c>
       <c r="C47">
-        <v>-0.03648951938397294</v>
+        <v>-0.06900536390602295</v>
       </c>
       <c r="D47">
-        <v>0.01385147954790034</v>
+        <v>0.01294021424737792</v>
       </c>
       <c r="E47">
-        <v>0.03537245242634916</v>
+        <v>0.01813802304575738</v>
       </c>
       <c r="F47">
-        <v>-0.007651817345273054</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.006449798610552403</v>
+      </c>
+      <c r="G47">
+        <v>-0.001479796412464756</v>
+      </c>
+      <c r="H47">
+        <v>-0.03677885733759018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02085970823309048</v>
+        <v>0.01240275864445742</v>
       </c>
       <c r="C48">
-        <v>-0.007259203636618665</v>
+        <v>-0.01717002607197147</v>
       </c>
       <c r="D48">
-        <v>0.01326945269378248</v>
+        <v>0.0009102100134205552</v>
       </c>
       <c r="E48">
-        <v>0.008564093180066632</v>
+        <v>0.004502768253580735</v>
       </c>
       <c r="F48">
-        <v>-0.02982998534142591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.006453352660710762</v>
+      </c>
+      <c r="G48">
+        <v>-0.004886087737400761</v>
+      </c>
+      <c r="H48">
+        <v>0.0165747614624232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08500871965531501</v>
+        <v>0.05474376831652604</v>
       </c>
       <c r="C50">
-        <v>-0.01140240092700558</v>
+        <v>-0.06421234360237019</v>
       </c>
       <c r="D50">
-        <v>0.03022866625934142</v>
+        <v>0.01101441303962173</v>
       </c>
       <c r="E50">
-        <v>0.02763768920071221</v>
+        <v>0.01890930107925463</v>
       </c>
       <c r="F50">
-        <v>-0.02275445315042265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02788572890889636</v>
+      </c>
+      <c r="G50">
+        <v>0.005905027675451505</v>
+      </c>
+      <c r="H50">
+        <v>-0.02613543487848088</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01890843546518412</v>
+        <v>0.01434688888601885</v>
       </c>
       <c r="C51">
-        <v>0.002137626162226041</v>
+        <v>-0.0177876043692946</v>
       </c>
       <c r="D51">
-        <v>-0.007692552361390367</v>
+        <v>-0.004104338553355051</v>
       </c>
       <c r="E51">
-        <v>-0.003058690772579296</v>
+        <v>0.007723601372728315</v>
       </c>
       <c r="F51">
-        <v>-0.09408153074510339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01455357339657706</v>
+      </c>
+      <c r="G51">
+        <v>-0.01119730700732396</v>
+      </c>
+      <c r="H51">
+        <v>0.04653891678485361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09329895082927799</v>
+        <v>0.06894760618907654</v>
       </c>
       <c r="C53">
-        <v>-0.03913086744525898</v>
+        <v>-0.1019646532514502</v>
       </c>
       <c r="D53">
-        <v>0.04276743856330856</v>
+        <v>0.01553509095404637</v>
       </c>
       <c r="E53">
-        <v>0.06092737897146457</v>
+        <v>0.04603568750740289</v>
       </c>
       <c r="F53">
-        <v>0.03082110130909402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.004317782158814316</v>
+      </c>
+      <c r="G53">
+        <v>-0.00305348683962071</v>
+      </c>
+      <c r="H53">
+        <v>-0.04373665426920102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0278212425233694</v>
+        <v>0.02250962216602026</v>
       </c>
       <c r="C54">
-        <v>0.004038807279577089</v>
+        <v>-0.001827550254270282</v>
       </c>
       <c r="D54">
-        <v>-0.007250846879885775</v>
+        <v>0.006556938127889474</v>
       </c>
       <c r="E54">
-        <v>0.01741063873139535</v>
+        <v>-0.001373163885615532</v>
       </c>
       <c r="F54">
-        <v>-0.02533316501014005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02253947172540689</v>
+      </c>
+      <c r="G54">
+        <v>-0.007212565839440731</v>
+      </c>
+      <c r="H54">
+        <v>0.007233671396344849</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08031155796290512</v>
+        <v>0.04854189285946564</v>
       </c>
       <c r="C55">
-        <v>-0.03096647628930759</v>
+        <v>-0.09018648399737457</v>
       </c>
       <c r="D55">
-        <v>0.05045717812313813</v>
+        <v>0.01246060410258435</v>
       </c>
       <c r="E55">
-        <v>0.04069280838403202</v>
+        <v>0.0345513516366853</v>
       </c>
       <c r="F55">
-        <v>0.02765024198034305</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.002272892058401205</v>
+      </c>
+      <c r="G55">
+        <v>0.003774385307836534</v>
+      </c>
+      <c r="H55">
+        <v>-0.04138612708356051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1298900511887534</v>
+        <v>0.09428364338246117</v>
       </c>
       <c r="C56">
-        <v>-0.0643009700406872</v>
+        <v>-0.1345875357760802</v>
       </c>
       <c r="D56">
-        <v>0.03180320611645401</v>
+        <v>0.0259562574856986</v>
       </c>
       <c r="E56">
-        <v>0.08180883609730361</v>
+        <v>0.04580811166087505</v>
       </c>
       <c r="F56">
-        <v>0.06182009647998371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.009488665756095005</v>
+      </c>
+      <c r="G56">
+        <v>-0.0117287890035557</v>
+      </c>
+      <c r="H56">
+        <v>-0.08726376865247872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03546043596303512</v>
+        <v>0.02073652906186442</v>
       </c>
       <c r="C57">
-        <v>-0.01714778288819626</v>
+        <v>-0.03145179440106313</v>
       </c>
       <c r="D57">
-        <v>0.02493502830101882</v>
+        <v>-0.02096718053420543</v>
       </c>
       <c r="E57">
-        <v>-0.0406789543742753</v>
+        <v>-0.02765070141939694</v>
       </c>
       <c r="F57">
-        <v>-0.05309242989001196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02093451303042378</v>
+      </c>
+      <c r="G57">
+        <v>-0.006185092614563875</v>
+      </c>
+      <c r="H57">
+        <v>0.06298277129077111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1603981210282321</v>
+        <v>0.07082337493266351</v>
       </c>
       <c r="C58">
-        <v>-0.1984952883413603</v>
+        <v>-0.2506577291712311</v>
       </c>
       <c r="D58">
-        <v>0.1787799703871972</v>
+        <v>0.003231190139113656</v>
       </c>
       <c r="E58">
-        <v>-0.04388875675409147</v>
+        <v>-0.915862330396026</v>
       </c>
       <c r="F58">
-        <v>-0.6118389455487647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2056447829974762</v>
+      </c>
+      <c r="G58">
+        <v>-0.1216519549792558</v>
+      </c>
+      <c r="H58">
+        <v>-0.0965873459825639</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07382407650758628</v>
+        <v>0.2114773429317792</v>
       </c>
       <c r="C59">
-        <v>-0.04282354622926314</v>
+        <v>0.1590133951276097</v>
       </c>
       <c r="D59">
-        <v>-0.1784941787795924</v>
+        <v>0.02021442329881972</v>
       </c>
       <c r="E59">
-        <v>-0.06317385945115095</v>
+        <v>-0.02751307400008932</v>
       </c>
       <c r="F59">
-        <v>-0.06218362298655588</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.008622160453217315</v>
+      </c>
+      <c r="G59">
+        <v>-0.003471891240009365</v>
+      </c>
+      <c r="H59">
+        <v>0.0184266338370764</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1449481991875817</v>
+        <v>0.2292169845444466</v>
       </c>
       <c r="C60">
-        <v>-0.1037292316832226</v>
+        <v>-0.09768837903049843</v>
       </c>
       <c r="D60">
-        <v>0.0004367565955244516</v>
+        <v>0.01514283970547148</v>
       </c>
       <c r="E60">
-        <v>-0.02602994299539085</v>
+        <v>0.03774170847112987</v>
       </c>
       <c r="F60">
-        <v>-0.1494883514643025</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.09662733487569695</v>
+      </c>
+      <c r="G60">
+        <v>-0.1197115804296731</v>
+      </c>
+      <c r="H60">
+        <v>0.3885596150814522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02194846488330206</v>
+        <v>0.01007855373591146</v>
       </c>
       <c r="C61">
-        <v>-0.00879927998981545</v>
+        <v>-0.06495392054467668</v>
       </c>
       <c r="D61">
-        <v>0.04008883326857638</v>
+        <v>0.000688657689929543</v>
       </c>
       <c r="E61">
-        <v>0.01216715827411854</v>
+        <v>0.01468665486289901</v>
       </c>
       <c r="F61">
-        <v>-0.02090666711610552</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.0005979738266805079</v>
+      </c>
+      <c r="G61">
+        <v>-0.02278925150320291</v>
+      </c>
+      <c r="H61">
+        <v>0.05565786334096728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01642663080273938</v>
+        <v>0.005272413816544228</v>
       </c>
       <c r="C63">
-        <v>-0.001978187012951135</v>
+        <v>-0.02203585058899884</v>
       </c>
       <c r="D63">
-        <v>0.01772109705120612</v>
+        <v>-0.005463166720476056</v>
       </c>
       <c r="E63">
-        <v>0.006150099062011823</v>
+        <v>0.01687035426697839</v>
       </c>
       <c r="F63">
-        <v>-0.007753818753946419</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.008943402920135282</v>
+      </c>
+      <c r="G63">
+        <v>-0.006469354567123702</v>
+      </c>
+      <c r="H63">
+        <v>0.01322330377505104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0424787705532461</v>
+        <v>0.03364136080614136</v>
       </c>
       <c r="C64">
-        <v>-0.00441892260303163</v>
+        <v>-0.04472986210929795</v>
       </c>
       <c r="D64">
-        <v>0.02644738611977327</v>
+        <v>0.001337763220406198</v>
       </c>
       <c r="E64">
-        <v>0.02202501540218454</v>
+        <v>0.02618869210206492</v>
       </c>
       <c r="F64">
-        <v>-0.0221611424078531</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.002140994487045656</v>
+      </c>
+      <c r="G64">
+        <v>0.002734526442283324</v>
+      </c>
+      <c r="H64">
+        <v>0.03316120254327182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03990893598481268</v>
+        <v>0.03961818687085594</v>
       </c>
       <c r="C65">
-        <v>-0.01189142810457189</v>
+        <v>-0.08260601733501979</v>
       </c>
       <c r="D65">
-        <v>0.04118390940789724</v>
+        <v>-0.007896637319834353</v>
       </c>
       <c r="E65">
-        <v>0.03374306074950323</v>
+        <v>0.03668814728721139</v>
       </c>
       <c r="F65">
-        <v>-0.01768681405854342</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.0116997871665083</v>
+      </c>
+      <c r="G65">
+        <v>-0.04088212727774167</v>
+      </c>
+      <c r="H65">
+        <v>0.06016988433291006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03322047567370064</v>
+        <v>0.008165174413322634</v>
       </c>
       <c r="C66">
-        <v>-0.02493747168097245</v>
+        <v>-0.1185717800839716</v>
       </c>
       <c r="D66">
-        <v>0.05955557767051375</v>
+        <v>-0.001365414693548546</v>
       </c>
       <c r="E66">
-        <v>0.05445034304901073</v>
+        <v>0.01840106246002524</v>
       </c>
       <c r="F66">
-        <v>-0.04135647825281928</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01479987950489939</v>
+      </c>
+      <c r="G66">
+        <v>-0.04913794001337281</v>
+      </c>
+      <c r="H66">
+        <v>0.07616319835330317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02486620633274083</v>
+        <v>0.04919933835299675</v>
       </c>
       <c r="C67">
-        <v>-0.01518676896549897</v>
+        <v>-0.0304508269868389</v>
       </c>
       <c r="D67">
-        <v>-0.008203390437805992</v>
+        <v>0.01254658265621012</v>
       </c>
       <c r="E67">
-        <v>-0.01662113183817619</v>
+        <v>0.0150617180453526</v>
       </c>
       <c r="F67">
-        <v>-0.02621425588133279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.003688397057043679</v>
+      </c>
+      <c r="G67">
+        <v>-0.01715196315893741</v>
+      </c>
+      <c r="H67">
+        <v>0.03005541719151441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08277152638676899</v>
+        <v>0.2132085122329496</v>
       </c>
       <c r="C68">
-        <v>-0.03272078075129739</v>
+        <v>0.2003281260245399</v>
       </c>
       <c r="D68">
-        <v>-0.2037573148924318</v>
+        <v>-0.000393497457725993</v>
       </c>
       <c r="E68">
-        <v>-0.08487900124978916</v>
+        <v>-0.04200946361076278</v>
       </c>
       <c r="F68">
-        <v>-0.05033098759346674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02586958671113366</v>
+      </c>
+      <c r="G68">
+        <v>0.04149072277134287</v>
+      </c>
+      <c r="H68">
+        <v>-0.0261308608868423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06166996227123681</v>
+        <v>0.05282420418479645</v>
       </c>
       <c r="C69">
-        <v>-0.02896959066212828</v>
+        <v>-0.06344550279154117</v>
       </c>
       <c r="D69">
-        <v>0.01223785404159093</v>
+        <v>0.01693932134759331</v>
       </c>
       <c r="E69">
-        <v>0.03702196993229091</v>
+        <v>0.0308408653856525</v>
       </c>
       <c r="F69">
-        <v>-0.009694758879443986</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.001228233696270888</v>
+      </c>
+      <c r="G69">
+        <v>-0.0149327204550878</v>
+      </c>
+      <c r="H69">
+        <v>-0.008990779473038484</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08369791084315771</v>
+        <v>0.1872358765612643</v>
       </c>
       <c r="C71">
-        <v>-0.03944182257754455</v>
+        <v>0.1552089199942688</v>
       </c>
       <c r="D71">
-        <v>-0.1981233714339274</v>
+        <v>0.006761783347353351</v>
       </c>
       <c r="E71">
-        <v>-0.1213277461753939</v>
+        <v>-0.0439159230034373</v>
       </c>
       <c r="F71">
-        <v>-0.05048881369526514</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02287121448168895</v>
+      </c>
+      <c r="G71">
+        <v>0.04418000383105955</v>
+      </c>
+      <c r="H71">
+        <v>-0.005599771587539828</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09808989702084286</v>
+        <v>0.05196996902510868</v>
       </c>
       <c r="C72">
-        <v>-0.05761002638972815</v>
+        <v>-0.1041311995785893</v>
       </c>
       <c r="D72">
-        <v>0.07313031403056369</v>
+        <v>0.01977474364879966</v>
       </c>
       <c r="E72">
-        <v>0.09400867397940198</v>
+        <v>0.04231057093091348</v>
       </c>
       <c r="F72">
-        <v>-0.1193968866196593</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02471960718357508</v>
+      </c>
+      <c r="G72">
+        <v>-0.06707245313236437</v>
+      </c>
+      <c r="H72">
+        <v>0.08186152271598728</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1717661381421429</v>
+        <v>0.290594802606678</v>
       </c>
       <c r="C73">
-        <v>-0.1720425507070684</v>
+        <v>-0.161882307077462</v>
       </c>
       <c r="D73">
-        <v>0.01946277447077023</v>
+        <v>0.0154326344960493</v>
       </c>
       <c r="E73">
-        <v>-0.06292221395443703</v>
+        <v>0.03412867667882705</v>
       </c>
       <c r="F73">
-        <v>-0.1687201782066178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1508375615141896</v>
+      </c>
+      <c r="G73">
+        <v>-0.127360304894811</v>
+      </c>
+      <c r="H73">
+        <v>0.4614649069862716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1171900872451158</v>
+        <v>0.09189859159420745</v>
       </c>
       <c r="C74">
-        <v>-0.0567440914288195</v>
+        <v>-0.1366916609056688</v>
       </c>
       <c r="D74">
-        <v>0.03637546561313727</v>
+        <v>0.02591166413812174</v>
       </c>
       <c r="E74">
-        <v>0.06643307350093161</v>
+        <v>0.05031772337184027</v>
       </c>
       <c r="F74">
-        <v>0.06665692108351334</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.005669942438447353</v>
+      </c>
+      <c r="G74">
+        <v>-0.00835805453241811</v>
+      </c>
+      <c r="H74">
+        <v>-0.058194210240483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2119605396392556</v>
+        <v>0.1960398640866066</v>
       </c>
       <c r="C75">
-        <v>-0.1216789194001291</v>
+        <v>-0.2285546626842023</v>
       </c>
       <c r="D75">
-        <v>0.03453031523477998</v>
+        <v>0.0531904114914273</v>
       </c>
       <c r="E75">
-        <v>0.1809669307194066</v>
+        <v>0.07802345439354072</v>
       </c>
       <c r="F75">
-        <v>0.09840589365530834</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03233788415055073</v>
+      </c>
+      <c r="G75">
+        <v>-0.03871434336704937</v>
+      </c>
+      <c r="H75">
+        <v>-0.1880213640474367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2548759051751808</v>
+        <v>0.1394445874715705</v>
       </c>
       <c r="C76">
-        <v>-0.1007052193530649</v>
+        <v>-0.1974452064013066</v>
       </c>
       <c r="D76">
-        <v>0.03789676911570776</v>
+        <v>0.04535777114713342</v>
       </c>
       <c r="E76">
-        <v>0.2134351189938558</v>
+        <v>0.1000880677888152</v>
       </c>
       <c r="F76">
-        <v>0.1828961749071841</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.008045785999052439</v>
+      </c>
+      <c r="G76">
+        <v>-0.02169320986846308</v>
+      </c>
+      <c r="H76">
+        <v>-0.1568745362693419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09393165226750856</v>
+        <v>0.04316571381377577</v>
       </c>
       <c r="C77">
-        <v>-0.05732434531543741</v>
+        <v>-0.08924613725726792</v>
       </c>
       <c r="D77">
-        <v>0.07882595053659697</v>
+        <v>-0.005102471509972236</v>
       </c>
       <c r="E77">
-        <v>-0.04148197335597986</v>
+        <v>-0.02326281522520154</v>
       </c>
       <c r="F77">
-        <v>-0.09048252428100619</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01417703641598795</v>
+      </c>
+      <c r="G77">
+        <v>0.01684461328732536</v>
+      </c>
+      <c r="H77">
+        <v>0.01707119129179583</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0513925414907315</v>
+        <v>0.01949059890021549</v>
       </c>
       <c r="C78">
-        <v>-0.01021338981193333</v>
+        <v>-0.07660827091317453</v>
       </c>
       <c r="D78">
-        <v>0.09188893953263995</v>
+        <v>-0.0002172210022209119</v>
       </c>
       <c r="E78">
-        <v>0.03547313457599046</v>
+        <v>0.001418553220880784</v>
       </c>
       <c r="F78">
-        <v>-0.08824105181033311</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01575944497545472</v>
+      </c>
+      <c r="G78">
+        <v>-0.0258873260969894</v>
+      </c>
+      <c r="H78">
+        <v>0.08178666377562796</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5308443724611572</v>
+        <v>0.09330852407885618</v>
       </c>
       <c r="C80">
-        <v>0.8230456188422344</v>
+        <v>-0.1174502803318038</v>
       </c>
       <c r="D80">
-        <v>0.05310486673439805</v>
+        <v>0.007756729679815629</v>
       </c>
       <c r="E80">
-        <v>-0.08834526256979502</v>
+        <v>0.2163386087489108</v>
       </c>
       <c r="F80">
-        <v>-0.03941842817439459</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.9071591793254346</v>
+      </c>
+      <c r="G80">
+        <v>0.216716112827191</v>
+      </c>
+      <c r="H80">
+        <v>0.1171688230195067</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.169791977596558</v>
+        <v>0.1221388417036382</v>
       </c>
       <c r="C81">
-        <v>-0.07982458471136922</v>
+        <v>-0.1482665531750777</v>
       </c>
       <c r="D81">
-        <v>0.0151774431989677</v>
+        <v>0.03276376152674815</v>
       </c>
       <c r="E81">
-        <v>0.1388021191564706</v>
+        <v>0.05386245070826789</v>
       </c>
       <c r="F81">
-        <v>0.07685963279551099</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.00103900559335036</v>
+      </c>
+      <c r="G81">
+        <v>-0.01882017713892701</v>
+      </c>
+      <c r="H81">
+        <v>-0.1158681972740788</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.002477302585183886</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0001097250620010618</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0004444102329417564</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01171603751511237</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.003760839355623602</v>
+      </c>
+      <c r="G82">
+        <v>0.0002822019302152319</v>
+      </c>
+      <c r="H82">
+        <v>0.002979245208164779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03554415055140499</v>
+        <v>0.02225035505970214</v>
       </c>
       <c r="C83">
-        <v>-0.02330484350472786</v>
+        <v>-0.02309195939926909</v>
       </c>
       <c r="D83">
-        <v>0.02069952170503058</v>
+        <v>-0.002022147147322587</v>
       </c>
       <c r="E83">
-        <v>-0.02788783622244319</v>
+        <v>-0.01552128494941352</v>
       </c>
       <c r="F83">
-        <v>-0.04980754421814402</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.008174651896104088</v>
+      </c>
+      <c r="G83">
+        <v>-0.001318458495926055</v>
+      </c>
+      <c r="H83">
+        <v>0.04113382944326126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2295125702291059</v>
+        <v>0.1774274672182516</v>
       </c>
       <c r="C85">
-        <v>-0.123178363217406</v>
+        <v>-0.2156658684194688</v>
       </c>
       <c r="D85">
-        <v>0.04082362566085642</v>
+        <v>0.03810691297974125</v>
       </c>
       <c r="E85">
-        <v>0.1869133188996749</v>
+        <v>0.1024937140558354</v>
       </c>
       <c r="F85">
-        <v>0.1403849174941746</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.05351225197942117</v>
+      </c>
+      <c r="G85">
+        <v>-0.02595908493058085</v>
+      </c>
+      <c r="H85">
+        <v>-0.1300090252574336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.001173677428154239</v>
+        <v>0.007700362601973652</v>
       </c>
       <c r="C86">
-        <v>0.001570567936154451</v>
+        <v>-0.03643724789517794</v>
       </c>
       <c r="D86">
-        <v>0.04834107453603816</v>
+        <v>-0.005032146194844196</v>
       </c>
       <c r="E86">
-        <v>0.0102868535085466</v>
+        <v>-0.001548755309917666</v>
       </c>
       <c r="F86">
-        <v>-0.08567953163585963</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01015893975889521</v>
+      </c>
+      <c r="G86">
+        <v>-0.001135801124462394</v>
+      </c>
+      <c r="H86">
+        <v>0.06981592488234147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02466799870954745</v>
+        <v>0.0007950618417036844</v>
       </c>
       <c r="C87">
-        <v>-0.006615516509037475</v>
+        <v>-0.04240919005795303</v>
       </c>
       <c r="D87">
-        <v>0.03740345364762172</v>
+        <v>-0.007148909356900518</v>
       </c>
       <c r="E87">
-        <v>0.004258229219091694</v>
+        <v>-0.03616273469400432</v>
       </c>
       <c r="F87">
-        <v>-0.09293626267258873</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02681936269483641</v>
+      </c>
+      <c r="G87">
+        <v>-0.01929438010042177</v>
+      </c>
+      <c r="H87">
+        <v>0.08185187733373098</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0244349172581067</v>
+        <v>0.04252677698224493</v>
       </c>
       <c r="C88">
-        <v>0.002194156348597341</v>
+        <v>-0.02140517623363647</v>
       </c>
       <c r="D88">
-        <v>-0.003328333078213586</v>
+        <v>-0.01642017273553372</v>
       </c>
       <c r="E88">
-        <v>0.002825748178761079</v>
+        <v>0.01626999594851432</v>
       </c>
       <c r="F88">
-        <v>0.02297111223193053</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01475122264139985</v>
+      </c>
+      <c r="G88">
+        <v>-0.005959766400255016</v>
+      </c>
+      <c r="H88">
+        <v>-0.0005330584085068295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.135103219418022</v>
+        <v>0.3313145161511483</v>
       </c>
       <c r="C89">
-        <v>-0.08895234272252017</v>
+        <v>0.2791039165097319</v>
       </c>
       <c r="D89">
-        <v>-0.350561464757756</v>
+        <v>0.01123136710903699</v>
       </c>
       <c r="E89">
-        <v>-0.1003449883373043</v>
+        <v>-0.03609890922975792</v>
       </c>
       <c r="F89">
-        <v>-0.06718993999990594</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.005450501373264061</v>
+      </c>
+      <c r="G89">
+        <v>0.02188298578700151</v>
+      </c>
+      <c r="H89">
+        <v>-0.01985230830824099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1055219693861743</v>
+        <v>0.2752297612013716</v>
       </c>
       <c r="C90">
-        <v>-0.04062407364413077</v>
+        <v>0.2559139087690911</v>
       </c>
       <c r="D90">
-        <v>-0.3346786137638175</v>
+        <v>0.0110735393218392</v>
       </c>
       <c r="E90">
-        <v>-0.114324647222673</v>
+        <v>-0.04236554143786612</v>
       </c>
       <c r="F90">
-        <v>-0.004369958510481561</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.02322421418509012</v>
+      </c>
+      <c r="G90">
+        <v>0.04743268945193058</v>
+      </c>
+      <c r="H90">
+        <v>-0.05430707000218925</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2559461927614435</v>
+        <v>0.183047649857099</v>
       </c>
       <c r="C91">
-        <v>-0.150827485009131</v>
+        <v>-0.2037655571948981</v>
       </c>
       <c r="D91">
-        <v>0.05322152912569221</v>
+        <v>0.04856174347920759</v>
       </c>
       <c r="E91">
-        <v>0.1597619645684995</v>
+        <v>0.08930186702222345</v>
       </c>
       <c r="F91">
-        <v>0.2254607900539911</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.04087408002595166</v>
+      </c>
+      <c r="G91">
+        <v>-0.004155383084335418</v>
+      </c>
+      <c r="H91">
+        <v>-0.1931602051478145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1640430994237881</v>
+        <v>0.2811604516130023</v>
       </c>
       <c r="C92">
-        <v>-0.08142211625956164</v>
+        <v>0.179483910971047</v>
       </c>
       <c r="D92">
-        <v>-0.412250098018875</v>
+        <v>0.05689541104096217</v>
       </c>
       <c r="E92">
-        <v>-0.04084821479014154</v>
+        <v>-0.04331479240759436</v>
       </c>
       <c r="F92">
-        <v>0.1128488237670763</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.03978486492087491</v>
+      </c>
+      <c r="G92">
+        <v>0.02244675903279423</v>
+      </c>
+      <c r="H92">
+        <v>-0.1479190744599529</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1152363763072561</v>
+        <v>0.3095970431191878</v>
       </c>
       <c r="C93">
-        <v>-0.0947839492988302</v>
+        <v>0.2459480676240445</v>
       </c>
       <c r="D93">
-        <v>-0.3798339143100355</v>
+        <v>0.02060582421797538</v>
       </c>
       <c r="E93">
-        <v>-0.1746841139358449</v>
+        <v>-0.05943442989308006</v>
       </c>
       <c r="F93">
-        <v>-0.008951280904937617</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01568909875359536</v>
+      </c>
+      <c r="G93">
+        <v>0.04258335681355439</v>
+      </c>
+      <c r="H93">
+        <v>0.008242665804043601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2724092349765866</v>
+        <v>0.2250163554345362</v>
       </c>
       <c r="C94">
-        <v>-0.1801843416559301</v>
+        <v>-0.2271595966386081</v>
       </c>
       <c r="D94">
-        <v>0.008029347657088275</v>
+        <v>0.03994058556565407</v>
       </c>
       <c r="E94">
-        <v>0.2571182343380912</v>
+        <v>0.1128562793772574</v>
       </c>
       <c r="F94">
-        <v>0.1162965468365757</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.08128980258682829</v>
+      </c>
+      <c r="G94">
+        <v>-0.08289869440925222</v>
+      </c>
+      <c r="H94">
+        <v>-0.4499241761350803</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.03054713757688393</v>
+        <v>0.03198784152205759</v>
       </c>
       <c r="C95">
-        <v>-0.1049546293833364</v>
+        <v>-0.1060553342131231</v>
       </c>
       <c r="D95">
-        <v>0.03995114623854298</v>
+        <v>0.01487887314899979</v>
       </c>
       <c r="E95">
-        <v>0.02576999366059723</v>
+        <v>-0.04142143180386621</v>
       </c>
       <c r="F95">
-        <v>-0.01299468052020949</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.07841247068174929</v>
+      </c>
+      <c r="G95">
+        <v>-0.01511571044120043</v>
+      </c>
+      <c r="H95">
+        <v>0.06007672535004471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1454576679298227</v>
+        <v>0.1862176502900543</v>
       </c>
       <c r="C98">
-        <v>-0.1156316953281417</v>
+        <v>-0.07491180971824062</v>
       </c>
       <c r="D98">
-        <v>-0.01048799244391391</v>
+        <v>0.03590443567550379</v>
       </c>
       <c r="E98">
-        <v>-0.08796931868992308</v>
+        <v>-0.02139568506277726</v>
       </c>
       <c r="F98">
-        <v>-0.1502079446945003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06738440466838296</v>
+      </c>
+      <c r="G98">
+        <v>-0.04224517718689418</v>
+      </c>
+      <c r="H98">
+        <v>0.329568152162637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01124116141206711</v>
+        <v>0.005375986594905912</v>
       </c>
       <c r="C101">
-        <v>0.003906094644405325</v>
+        <v>-0.02105955439045444</v>
       </c>
       <c r="D101">
-        <v>0.03280221410628056</v>
+        <v>-0.005118444099763159</v>
       </c>
       <c r="E101">
-        <v>0.01624114785574778</v>
+        <v>-0.03102821745122763</v>
       </c>
       <c r="F101">
-        <v>-0.185105410084232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03437050203716219</v>
+      </c>
+      <c r="G101">
+        <v>-0.02773082236965544</v>
+      </c>
+      <c r="H101">
+        <v>0.01146880103310296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1162066790277887</v>
+        <v>0.09234161617756353</v>
       </c>
       <c r="C102">
-        <v>-0.06123172878708046</v>
+        <v>-0.1078008650584462</v>
       </c>
       <c r="D102">
-        <v>0.0197263287634168</v>
+        <v>0.01229421762877178</v>
       </c>
       <c r="E102">
-        <v>0.09215784542959661</v>
+        <v>0.05586797614988995</v>
       </c>
       <c r="F102">
-        <v>0.085019281342451</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.02425415155224404</v>
+      </c>
+      <c r="G102">
+        <v>-0.01718822911302431</v>
+      </c>
+      <c r="H102">
+        <v>-0.0728212335392646</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04006868002424568</v>
+        <v>0.009616054182182403</v>
       </c>
       <c r="C103">
-        <v>-0.003980724474465894</v>
+        <v>-0.01484540764772337</v>
       </c>
       <c r="D103">
-        <v>0.01365209325734085</v>
+        <v>0.001896487272118691</v>
       </c>
       <c r="E103">
-        <v>0.03942081892358527</v>
+        <v>0.005439918481725177</v>
       </c>
       <c r="F103">
-        <v>0.0008928874789969072</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01477305057255618</v>
+      </c>
+      <c r="G103">
+        <v>-0.002127032039073419</v>
+      </c>
+      <c r="H103">
+        <v>-0.0105221410343399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1028002601303094</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.01605814135710831</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9806868449835814</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03685407388752764</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.01860205048406962</v>
+      </c>
+      <c r="G104">
+        <v>-0.1120365916185554</v>
+      </c>
+      <c r="H104">
+        <v>-0.06142101787018976</v>
       </c>
     </row>
   </sheetData>
